--- a/TestData/接口测试数据.xlsx
+++ b/TestData/接口测试数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panshao/PycharmProjects/InterfaceFrameworkDataDrivenByExcel/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389692B-0205-C84D-98FE-458D91378F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58185451-9225-514A-9872-01DDEB90F17D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>序号</t>
   </si>
@@ -60,12 +60,21 @@
     <t>key</t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>2021年7月26日 0时19分24秒</t>
+  </si>
+  <si>
     <t>博客的测试内容</t>
   </si>
   <si>
     <t>注册登录</t>
   </si>
   <si>
+    <t>2021年7月26日 0时19分25秒</t>
+  </si>
+  <si>
     <t>接口名称</t>
   </si>
   <si>
@@ -99,7 +108,7 @@
     <t>{"username":"testman${unique_num1}", "password":"123456789abc","email":"sed@qq.com"}</t>
   </si>
   <si>
-    <t>{"code": "00", "userid": 1644}</t>
+    <t>{"code": "00", "userid": 32}</t>
   </si>
   <si>
     <t>"code": "00"</t>
@@ -108,104 +117,139 @@
     <t>userid||userid": (\d+)</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>2021年7月26日 0时19分23秒</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>{"username": "testman${num1}", "password": "${md5(123456789abc)}"}</t>
   </si>
   <si>
+    <t>{"token": "116f9ed1f1d458a25f9d3cc6453a15cd", "code": "00", "userid": 32, "login_time": "2021-07-26 00:19:23"}</t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
     <t>token||token": "(\w+)</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
     <t>{"userid":${userid}, "token": "${token}", "title":"python", "content":"python port test"}</t>
   </si>
   <si>
+    <t>{"data": [{"content": "python port test", "title": "python"}], "code": "00", "userid": 32}</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>getblogsofuser</t>
   </si>
   <si>
     <t>{"userid":${userid}, "token": "${token}" }</t>
   </si>
   <si>
+    <t>{"data": [{"update_time": null, "title": "python", "content": "python port test", "articleId": 22, "owner": 32, "posted_on": "2021-07-26 00:19:23"}], "code": "00", "userid": 32}</t>
+  </si>
+  <si>
     <t>"title": "(\w+)"</t>
   </si>
   <si>
     <t>articleid||"articleId": (\d+)</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>getblogcontent</t>
   </si>
   <si>
     <t>${articleid}</t>
   </si>
   <si>
+    <t>{"code": "00", "data": [{"update_time": null, "title": "python", "content": "python port test", "articleId": 22, "owner": 32, "posted_on": "2021-07-26 00:19:23"}]}</t>
+  </si>
+  <si>
     <t>"content": "python port test"</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>update</t>
   </si>
   <si>
     <t>{"userid":${userid}, "token": "${token}", "articleId":${articleid}, "title":"python", "content":"test test"}</t>
   </si>
   <si>
+    <t>{"articleId": 22, "update_time": "2021-07-26 00:19:24", "code": "00", "userid": 32}</t>
+  </si>
+  <si>
+    <t>"update_time": "2021</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>{"code": "00", "data": [{"update_time": "2021-07-26 00:19:24", "title": "python", "content": "test test", "articleId": 22, "owner": 32, "posted_on": "2021-07-26 00:19:23"}]}</t>
+  </si>
+  <si>
     <t>"content": "test test"</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
     <t>{"userid":${userid}, "token": "${token}", "articleId":[${articleid}]}</t>
   </si>
   <si>
+    <t>{"articleId": [22], "code": "00", "userid": 32}</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>{"code": "03", "articleId": "22"}</t>
+  </si>
+  <si>
     <t>{"code": "03"</t>
   </si>
   <si>
     <t>执行耗时时间（ms）</t>
   </si>
   <si>
+    <t>{"code": "00", "userid": 33}</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>{"username": "testman${num1}", "password": "d266f2f31cf903c870027659030e967e"}</t>
   </si>
   <si>
-    <t>{"token": "64c354e9ec9c967d5f9a865187162020", "code": "00", "userid": 1644, "login_time": "2021-04-20 23:41:30"}</t>
-  </si>
-  <si>
-    <t>{"data": [{"content": "python port test", "title": "python"}], "code": "00", "userid": 1644}</t>
-  </si>
-  <si>
-    <t>{"data": [{"update_time": null, "title": "python", "content": "python port test", "articleId": 1310, "owner": 1644, "posted_on": "2021-04-20 23:41:30"}], "code": "00", "userid": 1644}</t>
-  </si>
-  <si>
-    <t>{"code": "00", "data": [{"update_time": null, "title": "python", "content": "python port test", "articleId": 1310, "owner": 1644, "posted_on": "2021-04-20 23:41:30"}]}</t>
-  </si>
-  <si>
-    <t>{"articleId": 1310, "update_time": "2021-04-20 23:41:30", "code": "00", "userid": 1644}</t>
-  </si>
-  <si>
-    <t>{"code": "00", "data": [{"update_time": "2021-04-20 23:41:30", "title": "python", "content": "test test", "articleId": 1310, "owner": 1644, "posted_on": "2021-04-20 23:41:30"}]}</t>
-  </si>
-  <si>
-    <t>{"articleId": [1310], "code": "00", "userid": 1644}</t>
-  </si>
-  <si>
-    <t>{"code": "03", "articleId": "1310"}</t>
-  </si>
-  <si>
-    <t>{"code": "00", "userid": 1645}</t>
-  </si>
-  <si>
-    <t>{"token": "2015a143f6c75bcb93a15c953740492f", "code": "00", "userid": 1645, "login_time": "2021-04-20 23:41:31"}</t>
-  </si>
-  <si>
-    <t>{"data": [{"content": "python port test", "title": "python"}], "code": "00", "userid": 1645}</t>
-  </si>
-  <si>
-    <t>"update_time": "2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"token": "f1f7e5fd7a2b16156171dc604d8d1a76", "code": "00", "userid": 33, "login_time": "2021-07-26 00:19:25"}</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>{"data": [{"content": "python port test", "title": "python"}], "code": "00", "userid": 33}</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
 </sst>
 </file>
@@ -290,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -324,6 +368,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,7 +402,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,7 +686,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -683,18 +742,22 @@
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -703,8 +766,12 @@
         <v>11</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
@@ -779,7 +846,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="C19" sqref="C19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -790,8 +857,9 @@
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.5" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -799,254 +867,308 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="27.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="25.25" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
@@ -1095,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1106,6 +1228,7 @@
     <col min="3" max="3" width="46.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1113,31 +1236,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.5" customHeight="1">
@@ -1145,76 +1268,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="28.25" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
